--- a/src/results/menu_list.xlsx
+++ b/src/results/menu_list.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/s-a-069/Desktop/vscode/project_slack_lunchbot/src/results/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{884A21C7-B6FC-4F41-AB27-CCC05D214DF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="760" windowWidth="31940" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -37,106 +43,115 @@
     <t>중식-일품</t>
   </si>
   <si>
-    <t xml:space="preserve"> 0009 뚝)얼큰곤드레국밥
-통밀잡곡밥
-맛살스크램블에그
-알감자조림
-콩나물부주무침
-두기
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 바지락칼국수
+    <t xml:space="preserve">뚝)순두부백탕
+쌀밤
+돈육김치볶음
+매콤어묵조림
+브로콜리&amp;컬리플라워초회
+짝두기
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">백패커 잡채파스타
+올리브볶음밥
+브로콜리크림수프
+피자왕춘권
+오렌지
+배추김치
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">바지락칼국수
 후리가케밤
 고기왕만두*초간장
 충무식어묵초무침
 산고추지
 배추김치
 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 뚝)전주식콩나물해장국
-쌀밤
-두전*부주호박전
-건파래자반
-열갈이된장나물
-짝두기
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 백패커 잡채파스타
-올리브볶음밥
-브로콜리크림수프
-피자왕춘권
-오렌지
-배추김치
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 뚝)순살감자탕
-현미밥
-버섯잡채
-메주리알곤약조림
-미역초무침
-두기
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 마파두부덮밥
-계란파국
-가자미유린기
-꽃빵연유튀김
-반달단무.
-배추김치
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 뚝)순두부백탕
-쌀밤
-돈육김치볶음
-매콤어묵조림
-브로콜리&amp;컬리플라워초회
-짝두기
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 부대덮밥
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">부대덮밥
 가쓰오부시장국
-새우볼꼬치*질리5
+새우볼꼬치*질리S
 감자샐러드
 몽키바나나덧
 짝두기
-~니
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 가을보양식 '주우탕 추'
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">가을보양식 '주우탕'
 쌀밤
 어니언고기산적
 두부조림
 얼갈이겉절이
 *10월의 계절김치* 석박지
 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 불고기할라피뇨필라프
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">불고기할라피뇨필라프
 팽이미소시루
 핫타이누들샐러드
 스마일감자튀김
 비트피클
 배추김치
 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">뚝)순살감자탕
+현미밥
+버섯잡채
+메주리알곤약조림
+미역초무침
+깍두기
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">마파두부덮밥
+계란파국
+가자미유린기
+꽃빵연유튀김
+반달단무
+배추김치
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">뚝)전주식콩나물해장국
+쌀밤
+녹두전*부주호박전
+건파래자반
+열갈이된장나물
+짝두기
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">뚝)얼큰곤드레국밥
+통밀잡곡밥
+맛살스크램블에그
+알감자조림
+콩나물부주무침
+깍두기
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -144,8 +159,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -184,22 +206,33 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -241,7 +274,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -273,9 +306,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -307,6 +358,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -482,12 +551,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:B8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <cols>
+    <col min="2" max="2" width="82.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="76.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="68.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="78.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="84.83203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
@@ -506,47 +584,48 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" ht="126">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="F2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>15</v>
-      </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" ht="144">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F3" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/results/menu_list.xlsx
+++ b/src/results/menu_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/s-a-069/Desktop/vscode/project_slack_lunchbot/src/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{884A21C7-B6FC-4F41-AB27-CCC05D214DF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EDB2A9A-0D9D-344B-9F06-73CE51CE74CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="760" windowWidth="31940" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,12 +31,6 @@
     <t>10월 26일</t>
   </si>
   <si>
-    <t>10월 27일</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 10월 28일</t>
-  </si>
-  <si>
     <t>중식-한식</t>
   </si>
   <si>
@@ -140,6 +134,14 @@
 콩나물부주무침
 깍두기
 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10월 27일</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10월 28일</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -554,8 +556,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:B8"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -578,50 +580,50 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="126">
       <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="F2" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="144">
       <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
